--- a/基于Android的智慧移动课堂学习系统/App测试bug记录2.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F0CD19B0-2887-4F8A-92E8-67E2F196E957}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{982C97DD-6952-44F1-AF09-82AA21F22C64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>代延绪</t>
   </si>
@@ -31,7 +31,31 @@
     <t>王品皓</t>
   </si>
   <si>
-    <t>1.下载的app放在Download文件夹下</t>
+    <t>1.通知刷新后会出现0人已读，但是名单有一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建班课后，因为其它班课有红点，老师的班课出现红点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.提交作业界面左上角返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.提交作业后返回班课界面还会有红点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.刚创建完班课的页面直接发布作业不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.作业截至时间改为1分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.结束无人提交的作业会崩溃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -387,7 +411,35 @@
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录2.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{982C97DD-6952-44F1-AF09-82AA21F22C64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{90B6655A-2498-43D9-959E-FC6DD8266E9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>代延绪</t>
   </si>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>6.结束无人提交的作业会崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.通知界面优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +388,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -421,6 +425,9 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录2.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{90B6655A-2498-43D9-959E-FC6DD8266E9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E995AB08-F418-4F25-9C07-EAB851837798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>代延绪</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>2.通知界面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理返回键重写方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +90,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -102,12 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -385,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -402,7 +425,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,40 +436,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录2.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E995AB08-F418-4F25-9C07-EAB851837798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0D43F6E9-7957-4121-89F1-C4ED504A87C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>代延绪</t>
   </si>
@@ -411,7 +411,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -460,6 +460,9 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
